--- a/BackTest/2020-01-24 BackTest ADA.xlsx
+++ b/BackTest/2020-01-24 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-564332.9564787899</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-564693.0023152999</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-564693.0023152999</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-620304.0065152999</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-620304.0065152999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-620304.0065152999</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-620304.0065152999</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-620334.0065152999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-610045.7665152999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-611155.3205152999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-611155.3205152999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-628676.0341152999</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-632266.4148152999</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-636016.4148152999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-617508.7217152999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-625184.2247152999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-625184.2247152999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-626044.5106152999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-626044.5106152999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-607964.5106152999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-609233.4561153</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-609233.4561153</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-609233.4561153</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-609660.1958153</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-610023.2687153</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-609385.9955153</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-609123.6751153</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-609123.6751153</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-609159.4298153</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-785719.2911153</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-796838.9651153</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-796838.9651153</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-796838.9651153</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-804838.9651153</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-804838.9651153</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-805340.9651153</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-805328.9651153</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-806757.8957153</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-807205.4336153</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-835404.4711153</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-835404.4711153</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-807526.8347153</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-788684.58954414</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-792234.58954414</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-792234.58954414</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-792196.18384414</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-792196.18384414</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-792196.18384414</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-792298.53204414</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-792298.53204414</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-792298.53204414</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-811960.3098441401</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-811960.3098441401</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-781013.0842441401</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-771238.4067441401</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-789150.0456441401</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-789150.0456441401</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-789150.0456441401</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-786245.2768441401</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-794759.7768441401</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-794759.7768441401</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-796436.3347441402</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-796436.3347441402</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-818778.6127441402</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-848725.4543441402</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-847272.6768441403</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-861362.5392441403</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-861362.5392441403</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-861362.5392441403</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-970617.6918441403</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1155997.98514414</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1145994.85434414</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-1358891.22054414</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-1362924.44614414</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-1359563.57574414</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-1365883.419844141</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1360774.81984414</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1361584.81984414</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-1455867.68544414</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-1451224.67744414</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-1429701.63074414</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-1429701.63074414</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-1429701.63074414</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-1429691.63074414</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-1451073.30554414</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-1464175.47454414</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-1464175.47454414</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-1464175.47454414</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-1483056.86564414</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-1483056.86564414</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-1449656.86564414</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-1347889.22524414</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-1347260.97974414</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-1347260.97974414</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-1347838.85334414</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-1347838.85334414</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-1347838.85334414</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-1347838.85334414</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-1347838.85334414</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-1331125.01274414</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-1331125.01274414</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-1331125.01274414</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-1317031.19454414</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-1317031.19454414</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-1194398.75984414</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-1579130.478530081</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-1673203.543330081</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-1673224.425130081</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-1673257.482330081</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-1673081.857230081</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-1688138.517030081</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-1705942.547030081</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-1756353.564230081</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-1508407.487930081</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-1496072.613630081</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-1496072.613630081</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-1516100.521330081</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-1516100.521330081</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-1516100.521330081</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-1564275.616830081</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-1600129.043830081</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-1624035.677030081</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-1845887.989730081</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-1834248.731430081</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-1979878.811592241</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-1799121.760070531</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-1188698.021948611</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-1183720.543148611</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-1316742.817617681</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-1356120.647899231</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-1356120.647899231</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-1356110.647899231</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-1362796.029699231</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-1465966.742022581</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-1527497.323637371</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-1529478.698711671</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-1546969.253711671</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-1546969.253711671</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13552,10 +13552,14 @@
         <v>-1933448.993211671</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>49.88</v>
+      </c>
+      <c r="J399" t="n">
+        <v>49.88</v>
+      </c>
       <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
@@ -13585,11 +13589,19 @@
         <v>-1983448.993211671</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>49.86</v>
+      </c>
+      <c r="J400" t="n">
+        <v>49.88</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13618,11 +13630,19 @@
         <v>-1960438.140311671</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>49.78</v>
+      </c>
+      <c r="J401" t="n">
+        <v>49.88</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13651,11 +13671,19 @@
         <v>-1960438.140311671</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>49.89</v>
+      </c>
+      <c r="J402" t="n">
+        <v>49.88</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13684,11 +13712,19 @@
         <v>-1987197.166211671</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>49.89</v>
+      </c>
+      <c r="J403" t="n">
+        <v>49.88</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13717,11 +13753,19 @@
         <v>-1952467.901611671</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="J404" t="n">
+        <v>49.88</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13753,8 +13797,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>49.88</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13786,8 +13836,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>49.88</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13816,11 +13872,19 @@
         <v>-1978570.627011671</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>49.88</v>
+      </c>
+      <c r="J407" t="n">
+        <v>49.88</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13849,11 +13913,19 @@
         <v>-1978570.627011671</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="J408" t="n">
+        <v>49.88</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13882,11 +13954,19 @@
         <v>-1943013.162811671</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="J409" t="n">
+        <v>49.88</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13915,11 +13995,19 @@
         <v>-1945340.277811671</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>49.93</v>
+      </c>
+      <c r="J410" t="n">
+        <v>49.88</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13948,11 +14036,19 @@
         <v>-1945340.277811671</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>49.89</v>
+      </c>
+      <c r="J411" t="n">
+        <v>49.88</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -13981,15 +14077,17 @@
         <v>-1961419.320411671</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I412" t="n">
         <v>49.89</v>
       </c>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>49.88</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L412" t="n">
@@ -14020,12 +14118,14 @@
         <v>-1962638.320411671</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I413" t="n">
         <v>49.7</v>
       </c>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>49.88</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14059,12 +14159,14 @@
         <v>-1960762.840511671</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I414" t="n">
         <v>49.66</v>
       </c>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>49.88</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14098,12 +14200,14 @@
         <v>-1967126.400611671</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I415" t="n">
         <v>49.72</v>
       </c>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>49.88</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14137,12 +14241,14 @@
         <v>-1967974.520611671</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I416" t="n">
         <v>49.55</v>
       </c>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>49.88</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14176,12 +14282,14 @@
         <v>-1967949.714911671</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I417" t="n">
         <v>49.52</v>
       </c>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>49.88</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14215,12 +14323,14 @@
         <v>-2007949.714911671</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I418" t="n">
         <v>49.6</v>
       </c>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>49.88</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14254,12 +14364,14 @@
         <v>-2048763.443511671</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I419" t="n">
         <v>49.5</v>
       </c>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>49.88</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14271,6 +14383,6 @@
       <c r="M419" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest ADA.xlsx
+++ b/BackTest/2020-01-24 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-564332.9564787899</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-620304.0065152999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-620304.0065152999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-610045.7665152999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-611155.3205152999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-628676.0341152999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-632266.4148152999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-636016.4148152999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-617508.7217152999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-625184.2247152999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-625184.2247152999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-626044.5106152999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-626044.5106152999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-607964.5106152999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-609233.4561153</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-609233.4561153</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-609233.4561153</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-609660.1958153</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-610023.2687153</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-609385.9955153</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-609123.6751153</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-609123.6751153</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-609159.4298153</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-785719.2911153</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-796838.9651153</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-796838.9651153</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-796838.9651153</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-804838.9651153</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-804838.9651153</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-805340.9651153</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-805328.9651153</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-806757.8957153</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-807205.4336153</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-835404.4711153</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-835404.4711153</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-807526.8347153</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-788684.58954414</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-792234.58954414</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-792234.58954414</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-792196.18384414</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-792196.18384414</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-792196.18384414</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-792298.53204414</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-792298.53204414</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-792298.53204414</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-811960.3098441401</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-811960.3098441401</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-781013.0842441401</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-771238.4067441401</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-789150.0456441401</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-789150.0456441401</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-789150.0456441401</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-786245.2768441401</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-794759.7768441401</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-794759.7768441401</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-796436.3347441402</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-796436.3347441402</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-818778.6127441402</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-848725.4543441402</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-847272.6768441403</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-861362.5392441403</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-861362.5392441403</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-861362.5392441403</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-970617.6918441403</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1155997.98514414</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1145994.85434414</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-1358891.22054414</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-1362924.44614414</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-1359563.57574414</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-1365883.419844141</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1361584.81984414</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-1748105.028632191</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-1748105.028632191</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-1747947.765019061</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-1765270.128819061</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-1804066.337419061</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-1804066.337419061</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-1817835.528119061</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-855078.6840190612</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-855088.6840190612</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-855041.8579190612</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-855041.8579190612</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-799181.7288029811</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-822683.7918029811</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-822683.7918029811</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-822683.7918029811</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-819697.6800029811</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-820674.105402981</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-821650.877827571</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-841195.798427571</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-883280.104627571</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-883176.104627571</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-772814.3309275709</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-772834.3309275709</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-773950.713927571</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-773910.022727571</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-775745.981727571</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-774142.745116091</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-894442.745116091</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-894442.745116091</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-925309.905216091</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-925309.905216091</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -13552,14 +13552,10 @@
         <v>-1933448.993211671</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>49.88</v>
-      </c>
-      <c r="J399" t="n">
-        <v>49.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
@@ -13589,630 +13585,550 @@
         <v>-1983448.993211671</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>49.86</v>
-      </c>
-      <c r="J400" t="n">
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
+      <c r="L400" t="n">
+        <v>1</v>
+      </c>
+      <c r="M400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>49.89</v>
+      </c>
+      <c r="C401" t="n">
+        <v>49.89</v>
+      </c>
+      <c r="D401" t="n">
+        <v>49.89</v>
+      </c>
+      <c r="E401" t="n">
+        <v>49.89</v>
+      </c>
+      <c r="F401" t="n">
+        <v>23010.8529</v>
+      </c>
+      <c r="G401" t="n">
+        <v>-1960438.140311671</v>
+      </c>
+      <c r="H401" t="n">
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>49.78</v>
+      </c>
+      <c r="J401" t="n">
+        <v>49.78</v>
+      </c>
+      <c r="K401" t="inlineStr"/>
+      <c r="L401" t="n">
+        <v>1</v>
+      </c>
+      <c r="M401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="n">
+        <v>49.89</v>
+      </c>
+      <c r="C402" t="n">
+        <v>49.89</v>
+      </c>
+      <c r="D402" t="n">
+        <v>49.89</v>
+      </c>
+      <c r="E402" t="n">
+        <v>49.89</v>
+      </c>
+      <c r="F402" t="n">
+        <v>70344.60370000001</v>
+      </c>
+      <c r="G402" t="n">
+        <v>-1960438.140311671</v>
+      </c>
+      <c r="H402" t="n">
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>49.78</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L402" t="n">
+        <v>1</v>
+      </c>
+      <c r="M402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="n">
+        <v>49.89</v>
+      </c>
+      <c r="C403" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D403" t="n">
+        <v>49.89</v>
+      </c>
+      <c r="E403" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="F403" t="n">
+        <v>26759.0259</v>
+      </c>
+      <c r="G403" t="n">
+        <v>-1987197.166211671</v>
+      </c>
+      <c r="H403" t="n">
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>49.78</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L403" t="n">
+        <v>1</v>
+      </c>
+      <c r="M403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="n">
+        <v>49.91</v>
+      </c>
+      <c r="C404" t="n">
+        <v>50.14</v>
+      </c>
+      <c r="D404" t="n">
+        <v>50.14</v>
+      </c>
+      <c r="E404" t="n">
+        <v>49.91</v>
+      </c>
+      <c r="F404" t="n">
+        <v>34729.2646</v>
+      </c>
+      <c r="G404" t="n">
+        <v>-1952467.901611671</v>
+      </c>
+      <c r="H404" t="n">
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="J404" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="K404" t="inlineStr"/>
+      <c r="L404" t="n">
+        <v>1</v>
+      </c>
+      <c r="M404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="n">
+        <v>50.11</v>
+      </c>
+      <c r="C405" t="n">
+        <v>50.11</v>
+      </c>
+      <c r="D405" t="n">
+        <v>50.11</v>
+      </c>
+      <c r="E405" t="n">
+        <v>50.11</v>
+      </c>
+      <c r="F405" t="n">
+        <v>39748.3346</v>
+      </c>
+      <c r="G405" t="n">
+        <v>-1992216.236211671</v>
+      </c>
+      <c r="H405" t="n">
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L405" t="n">
+        <v>1</v>
+      </c>
+      <c r="M405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="n">
         <v>49.88</v>
       </c>
-      <c r="K400" t="inlineStr">
+      <c r="C406" t="n">
+        <v>49.88</v>
+      </c>
+      <c r="D406" t="n">
+        <v>49.88</v>
+      </c>
+      <c r="E406" t="n">
+        <v>49.88</v>
+      </c>
+      <c r="F406" t="n">
+        <v>2157.7082</v>
+      </c>
+      <c r="G406" t="n">
+        <v>-1994373.944411671</v>
+      </c>
+      <c r="H406" t="n">
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L406" t="n">
+        <v>1</v>
+      </c>
+      <c r="M406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C407" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="D407" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="E407" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="F407" t="n">
+        <v>15803.3174</v>
+      </c>
+      <c r="G407" t="n">
+        <v>-1978570.627011671</v>
+      </c>
+      <c r="H407" t="n">
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
+      <c r="L407" t="n">
+        <v>1</v>
+      </c>
+      <c r="M407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C408" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="D408" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="E408" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="F408" t="n">
+        <v>7902.0298</v>
+      </c>
+      <c r="G408" t="n">
+        <v>-1978570.627011671</v>
+      </c>
+      <c r="H408" t="n">
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
+      <c r="L408" t="n">
+        <v>1</v>
+      </c>
+      <c r="M408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="n">
+        <v>49.93</v>
+      </c>
+      <c r="C409" t="n">
+        <v>49.93</v>
+      </c>
+      <c r="D409" t="n">
+        <v>49.93</v>
+      </c>
+      <c r="E409" t="n">
+        <v>49.93</v>
+      </c>
+      <c r="F409" t="n">
+        <v>35557.4642</v>
+      </c>
+      <c r="G409" t="n">
+        <v>-1943013.162811671</v>
+      </c>
+      <c r="H409" t="n">
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
+      <c r="L409" t="n">
+        <v>1</v>
+      </c>
+      <c r="M409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="n">
+        <v>49.89</v>
+      </c>
+      <c r="C410" t="n">
+        <v>49.89</v>
+      </c>
+      <c r="D410" t="n">
+        <v>49.89</v>
+      </c>
+      <c r="E410" t="n">
+        <v>49.89</v>
+      </c>
+      <c r="F410" t="n">
+        <v>2327.115</v>
+      </c>
+      <c r="G410" t="n">
+        <v>-1945340.277811671</v>
+      </c>
+      <c r="H410" t="n">
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
+      <c r="L410" t="n">
+        <v>1</v>
+      </c>
+      <c r="M410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="n">
+        <v>49.89</v>
+      </c>
+      <c r="C411" t="n">
+        <v>49.89</v>
+      </c>
+      <c r="D411" t="n">
+        <v>49.89</v>
+      </c>
+      <c r="E411" t="n">
+        <v>49.87</v>
+      </c>
+      <c r="F411" t="n">
+        <v>2546.4519</v>
+      </c>
+      <c r="G411" t="n">
+        <v>-1945340.277811671</v>
+      </c>
+      <c r="H411" t="n">
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
+      <c r="L411" t="n">
+        <v>1</v>
+      </c>
+      <c r="M411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="n">
+        <v>49.87</v>
+      </c>
+      <c r="C412" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="D412" t="n">
+        <v>49.87</v>
+      </c>
+      <c r="E412" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="F412" t="n">
+        <v>16079.0426</v>
+      </c>
+      <c r="G412" t="n">
+        <v>-1961419.320411671</v>
+      </c>
+      <c r="H412" t="n">
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
+      <c r="L412" t="n">
+        <v>1</v>
+      </c>
+      <c r="M412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C413" t="n">
+        <v>49.66</v>
+      </c>
+      <c r="D413" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="E413" t="n">
+        <v>49.66</v>
+      </c>
+      <c r="F413" t="n">
+        <v>1219</v>
+      </c>
+      <c r="G413" t="n">
+        <v>-1962638.320411671</v>
+      </c>
+      <c r="H413" t="n">
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
+      <c r="L413" t="n">
+        <v>1</v>
+      </c>
+      <c r="M413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="n">
+        <v>49.72</v>
+      </c>
+      <c r="C414" t="n">
+        <v>49.72</v>
+      </c>
+      <c r="D414" t="n">
+        <v>49.72</v>
+      </c>
+      <c r="E414" t="n">
+        <v>49.72</v>
+      </c>
+      <c r="F414" t="n">
+        <v>1875.4799</v>
+      </c>
+      <c r="G414" t="n">
+        <v>-1960762.840511671</v>
+      </c>
+      <c r="H414" t="n">
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>49.66</v>
+      </c>
+      <c r="J414" t="n">
+        <v>49.66</v>
+      </c>
+      <c r="K414" t="inlineStr"/>
+      <c r="L414" t="n">
+        <v>1</v>
+      </c>
+      <c r="M414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="n">
+        <v>49.72</v>
+      </c>
+      <c r="C415" t="n">
+        <v>49.55</v>
+      </c>
+      <c r="D415" t="n">
+        <v>49.72</v>
+      </c>
+      <c r="E415" t="n">
+        <v>49.55</v>
+      </c>
+      <c r="F415" t="n">
+        <v>6363.5601</v>
+      </c>
+      <c r="G415" t="n">
+        <v>-1967126.400611671</v>
+      </c>
+      <c r="H415" t="n">
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>49.72</v>
+      </c>
+      <c r="J415" t="n">
+        <v>49.66</v>
+      </c>
+      <c r="K415" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L400" t="n">
-        <v>1</v>
-      </c>
-      <c r="M400" t="inlineStr"/>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B401" t="n">
-        <v>49.89</v>
-      </c>
-      <c r="C401" t="n">
-        <v>49.89</v>
-      </c>
-      <c r="D401" t="n">
-        <v>49.89</v>
-      </c>
-      <c r="E401" t="n">
-        <v>49.89</v>
-      </c>
-      <c r="F401" t="n">
-        <v>23010.8529</v>
-      </c>
-      <c r="G401" t="n">
-        <v>-1960438.140311671</v>
-      </c>
-      <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>49.78</v>
-      </c>
-      <c r="J401" t="n">
-        <v>49.88</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L401" t="n">
-        <v>1</v>
-      </c>
-      <c r="M401" t="inlineStr"/>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="B402" t="n">
-        <v>49.89</v>
-      </c>
-      <c r="C402" t="n">
-        <v>49.89</v>
-      </c>
-      <c r="D402" t="n">
-        <v>49.89</v>
-      </c>
-      <c r="E402" t="n">
-        <v>49.89</v>
-      </c>
-      <c r="F402" t="n">
-        <v>70344.60370000001</v>
-      </c>
-      <c r="G402" t="n">
-        <v>-1960438.140311671</v>
-      </c>
-      <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>49.89</v>
-      </c>
-      <c r="J402" t="n">
-        <v>49.88</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L402" t="n">
-        <v>1</v>
-      </c>
-      <c r="M402" t="inlineStr"/>
-    </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
-        <v>401</v>
-      </c>
-      <c r="B403" t="n">
-        <v>49.89</v>
-      </c>
-      <c r="C403" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="D403" t="n">
-        <v>49.89</v>
-      </c>
-      <c r="E403" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="F403" t="n">
-        <v>26759.0259</v>
-      </c>
-      <c r="G403" t="n">
-        <v>-1987197.166211671</v>
-      </c>
-      <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>49.89</v>
-      </c>
-      <c r="J403" t="n">
-        <v>49.88</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L403" t="n">
-        <v>1</v>
-      </c>
-      <c r="M403" t="inlineStr"/>
-    </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
-        <v>402</v>
-      </c>
-      <c r="B404" t="n">
-        <v>49.91</v>
-      </c>
-      <c r="C404" t="n">
-        <v>50.14</v>
-      </c>
-      <c r="D404" t="n">
-        <v>50.14</v>
-      </c>
-      <c r="E404" t="n">
-        <v>49.91</v>
-      </c>
-      <c r="F404" t="n">
-        <v>34729.2646</v>
-      </c>
-      <c r="G404" t="n">
-        <v>-1952467.901611671</v>
-      </c>
-      <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="J404" t="n">
-        <v>49.88</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L404" t="n">
-        <v>1</v>
-      </c>
-      <c r="M404" t="inlineStr"/>
-    </row>
-    <row r="405">
-      <c r="A405" s="1" t="n">
-        <v>403</v>
-      </c>
-      <c r="B405" t="n">
-        <v>50.11</v>
-      </c>
-      <c r="C405" t="n">
-        <v>50.11</v>
-      </c>
-      <c r="D405" t="n">
-        <v>50.11</v>
-      </c>
-      <c r="E405" t="n">
-        <v>50.11</v>
-      </c>
-      <c r="F405" t="n">
-        <v>39748.3346</v>
-      </c>
-      <c r="G405" t="n">
-        <v>-1992216.236211671</v>
-      </c>
-      <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>49.88</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L405" t="n">
-        <v>1</v>
-      </c>
-      <c r="M405" t="inlineStr"/>
-    </row>
-    <row r="406">
-      <c r="A406" s="1" t="n">
-        <v>404</v>
-      </c>
-      <c r="B406" t="n">
-        <v>49.88</v>
-      </c>
-      <c r="C406" t="n">
-        <v>49.88</v>
-      </c>
-      <c r="D406" t="n">
-        <v>49.88</v>
-      </c>
-      <c r="E406" t="n">
-        <v>49.88</v>
-      </c>
-      <c r="F406" t="n">
-        <v>2157.7082</v>
-      </c>
-      <c r="G406" t="n">
-        <v>-1994373.944411671</v>
-      </c>
-      <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>49.88</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L406" t="n">
-        <v>1</v>
-      </c>
-      <c r="M406" t="inlineStr"/>
-    </row>
-    <row r="407">
-      <c r="A407" s="1" t="n">
-        <v>405</v>
-      </c>
-      <c r="B407" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="C407" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="D407" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="E407" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="F407" t="n">
-        <v>15803.3174</v>
-      </c>
-      <c r="G407" t="n">
-        <v>-1978570.627011671</v>
-      </c>
-      <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>49.88</v>
-      </c>
-      <c r="J407" t="n">
-        <v>49.88</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L407" t="n">
-        <v>1</v>
-      </c>
-      <c r="M407" t="inlineStr"/>
-    </row>
-    <row r="408">
-      <c r="A408" s="1" t="n">
-        <v>406</v>
-      </c>
-      <c r="B408" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="C408" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="D408" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="E408" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="F408" t="n">
-        <v>7902.0298</v>
-      </c>
-      <c r="G408" t="n">
-        <v>-1978570.627011671</v>
-      </c>
-      <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="J408" t="n">
-        <v>49.88</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L408" t="n">
-        <v>1</v>
-      </c>
-      <c r="M408" t="inlineStr"/>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="n">
-        <v>407</v>
-      </c>
-      <c r="B409" t="n">
-        <v>49.93</v>
-      </c>
-      <c r="C409" t="n">
-        <v>49.93</v>
-      </c>
-      <c r="D409" t="n">
-        <v>49.93</v>
-      </c>
-      <c r="E409" t="n">
-        <v>49.93</v>
-      </c>
-      <c r="F409" t="n">
-        <v>35557.4642</v>
-      </c>
-      <c r="G409" t="n">
-        <v>-1943013.162811671</v>
-      </c>
-      <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="J409" t="n">
-        <v>49.88</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L409" t="n">
-        <v>1</v>
-      </c>
-      <c r="M409" t="inlineStr"/>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="B410" t="n">
-        <v>49.89</v>
-      </c>
-      <c r="C410" t="n">
-        <v>49.89</v>
-      </c>
-      <c r="D410" t="n">
-        <v>49.89</v>
-      </c>
-      <c r="E410" t="n">
-        <v>49.89</v>
-      </c>
-      <c r="F410" t="n">
-        <v>2327.115</v>
-      </c>
-      <c r="G410" t="n">
-        <v>-1945340.277811671</v>
-      </c>
-      <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>49.93</v>
-      </c>
-      <c r="J410" t="n">
-        <v>49.88</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L410" t="n">
-        <v>1</v>
-      </c>
-      <c r="M410" t="inlineStr"/>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
-        <v>409</v>
-      </c>
-      <c r="B411" t="n">
-        <v>49.89</v>
-      </c>
-      <c r="C411" t="n">
-        <v>49.89</v>
-      </c>
-      <c r="D411" t="n">
-        <v>49.89</v>
-      </c>
-      <c r="E411" t="n">
-        <v>49.87</v>
-      </c>
-      <c r="F411" t="n">
-        <v>2546.4519</v>
-      </c>
-      <c r="G411" t="n">
-        <v>-1945340.277811671</v>
-      </c>
-      <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>49.89</v>
-      </c>
-      <c r="J411" t="n">
-        <v>49.88</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L411" t="n">
-        <v>1</v>
-      </c>
-      <c r="M411" t="inlineStr"/>
-    </row>
-    <row r="412">
-      <c r="A412" s="1" t="n">
-        <v>410</v>
-      </c>
-      <c r="B412" t="n">
-        <v>49.87</v>
-      </c>
-      <c r="C412" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="D412" t="n">
-        <v>49.87</v>
-      </c>
-      <c r="E412" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="F412" t="n">
-        <v>16079.0426</v>
-      </c>
-      <c r="G412" t="n">
-        <v>-1961419.320411671</v>
-      </c>
-      <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>49.89</v>
-      </c>
-      <c r="J412" t="n">
-        <v>49.88</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L412" t="n">
-        <v>1</v>
-      </c>
-      <c r="M412" t="inlineStr"/>
-    </row>
-    <row r="413">
-      <c r="A413" s="1" t="n">
-        <v>411</v>
-      </c>
-      <c r="B413" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="C413" t="n">
-        <v>49.66</v>
-      </c>
-      <c r="D413" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="E413" t="n">
-        <v>49.66</v>
-      </c>
-      <c r="F413" t="n">
-        <v>1219</v>
-      </c>
-      <c r="G413" t="n">
-        <v>-1962638.320411671</v>
-      </c>
-      <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="J413" t="n">
-        <v>49.88</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L413" t="n">
-        <v>1</v>
-      </c>
-      <c r="M413" t="inlineStr"/>
-    </row>
-    <row r="414">
-      <c r="A414" s="1" t="n">
-        <v>412</v>
-      </c>
-      <c r="B414" t="n">
-        <v>49.72</v>
-      </c>
-      <c r="C414" t="n">
-        <v>49.72</v>
-      </c>
-      <c r="D414" t="n">
-        <v>49.72</v>
-      </c>
-      <c r="E414" t="n">
-        <v>49.72</v>
-      </c>
-      <c r="F414" t="n">
-        <v>1875.4799</v>
-      </c>
-      <c r="G414" t="n">
-        <v>-1960762.840511671</v>
-      </c>
-      <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>49.66</v>
-      </c>
-      <c r="J414" t="n">
-        <v>49.88</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L414" t="n">
-        <v>1</v>
-      </c>
-      <c r="M414" t="inlineStr"/>
-    </row>
-    <row r="415">
-      <c r="A415" s="1" t="n">
-        <v>413</v>
-      </c>
-      <c r="B415" t="n">
-        <v>49.72</v>
-      </c>
-      <c r="C415" t="n">
-        <v>49.55</v>
-      </c>
-      <c r="D415" t="n">
-        <v>49.72</v>
-      </c>
-      <c r="E415" t="n">
-        <v>49.55</v>
-      </c>
-      <c r="F415" t="n">
-        <v>6363.5601</v>
-      </c>
-      <c r="G415" t="n">
-        <v>-1967126.400611671</v>
-      </c>
-      <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>49.72</v>
-      </c>
-      <c r="J415" t="n">
-        <v>49.88</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14247,7 +14163,7 @@
         <v>49.55</v>
       </c>
       <c r="J416" t="n">
-        <v>49.88</v>
+        <v>49.66</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -14288,7 +14204,7 @@
         <v>49.52</v>
       </c>
       <c r="J417" t="n">
-        <v>49.88</v>
+        <v>49.66</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -14329,7 +14245,7 @@
         <v>49.6</v>
       </c>
       <c r="J418" t="n">
-        <v>49.88</v>
+        <v>49.66</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -14370,7 +14286,7 @@
         <v>49.5</v>
       </c>
       <c r="J419" t="n">
-        <v>49.88</v>
+        <v>49.66</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -14383,6 +14299,6 @@
       <c r="M419" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest ADA.xlsx
+++ b/BackTest/2020-01-24 BackTest ADA.xlsx
@@ -451,7 +451,7 @@
         <v>-564332.9564787899</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-564693.0023152999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-564693.0023152999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-620304.0065152999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-620304.0065152999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-620304.0065152999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-625184.2247152999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-609233.4561153</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-609233.4561153</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-609233.4561153</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-609660.1958153</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-610023.2687153</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-609385.9955153</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-609123.6751153</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-609123.6751153</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-609159.4298153</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-785719.2911153</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-796838.9651153</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-796838.9651153</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-796838.9651153</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-807205.4336153</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-792234.58954414</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-792196.18384414</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-792196.18384414</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-792298.53204414</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-1748105.028632191</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-1748105.028632191</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-1747947.765019061</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-1765270.128819061</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-1804066.337419061</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-1804066.337419061</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-1817835.528119061</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-855078.6840190612</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-855088.6840190612</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-855041.8579190612</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-855041.8579190612</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-799181.7288029811</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-822683.7918029811</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-822683.7918029811</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-822683.7918029811</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-819697.6800029811</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-820674.105402981</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-821650.877827571</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-841195.798427571</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-883280.104627571</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-883176.104627571</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-772814.3309275709</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-772834.3309275709</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-773950.713927571</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-773910.022727571</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-775745.981727571</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-774142.745116091</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-894442.745116091</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-894442.745116091</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-925309.905216091</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-925309.905216091</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -13618,14 +13618,10 @@
         <v>-1960438.140311671</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>49.78</v>
-      </c>
-      <c r="J401" t="n">
-        <v>49.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
@@ -13658,14 +13654,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>49.78</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13697,14 +13687,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>49.78</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13733,14 +13717,10 @@
         <v>-1952467.901611671</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="J404" t="n">
-        <v>49.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
@@ -13773,14 +13753,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13812,14 +13786,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14079,14 +14047,10 @@
         <v>-1960762.840511671</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>49.66</v>
-      </c>
-      <c r="J414" t="n">
-        <v>49.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
@@ -14116,60 +14080,50 @@
         <v>-1967126.400611671</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>49.72</v>
-      </c>
-      <c r="J415" t="n">
-        <v>49.66</v>
-      </c>
-      <c r="K415" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
+      <c r="L415" t="n">
+        <v>1</v>
+      </c>
+      <c r="M415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="n">
+        <v>49.55</v>
+      </c>
+      <c r="C416" t="n">
+        <v>49.52</v>
+      </c>
+      <c r="D416" t="n">
+        <v>49.55</v>
+      </c>
+      <c r="E416" t="n">
+        <v>49.52</v>
+      </c>
+      <c r="F416" t="n">
+        <v>848.12</v>
+      </c>
+      <c r="G416" t="n">
+        <v>-1967974.520611671</v>
+      </c>
+      <c r="H416" t="n">
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>49.55</v>
+      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L415" t="n">
-        <v>1</v>
-      </c>
-      <c r="M415" t="inlineStr"/>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
-        <v>414</v>
-      </c>
-      <c r="B416" t="n">
-        <v>49.55</v>
-      </c>
-      <c r="C416" t="n">
-        <v>49.52</v>
-      </c>
-      <c r="D416" t="n">
-        <v>49.55</v>
-      </c>
-      <c r="E416" t="n">
-        <v>49.52</v>
-      </c>
-      <c r="F416" t="n">
-        <v>848.12</v>
-      </c>
-      <c r="G416" t="n">
-        <v>-1967974.520611671</v>
-      </c>
-      <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>49.55</v>
-      </c>
-      <c r="J416" t="n">
-        <v>49.66</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14203,9 +14157,7 @@
       <c r="I417" t="n">
         <v>49.52</v>
       </c>
-      <c r="J417" t="n">
-        <v>49.66</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14244,9 +14196,7 @@
       <c r="I418" t="n">
         <v>49.6</v>
       </c>
-      <c r="J418" t="n">
-        <v>49.66</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14285,9 +14235,7 @@
       <c r="I419" t="n">
         <v>49.5</v>
       </c>
-      <c r="J419" t="n">
-        <v>49.66</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
